--- a/DateTables/Datas/__enums__.xlsx
+++ b/DateTables/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ruby_etc\ruby_object\wand_sword_saga_ruby\DateTables\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D40F815-0FA0-4B0D-8EC4-34A49F1E98B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F14F26C-5FF0-424B-831D-C03B2D9802B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="3420" windowWidth="24540" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="-5040" windowWidth="21840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
